--- a/Code/Results/Cases/Case_4_106/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_106/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.178589937282084</v>
+        <v>1.217416695739445</v>
       </c>
       <c r="C2">
-        <v>0.1103476444816067</v>
+        <v>0.03324176402566081</v>
       </c>
       <c r="D2">
-        <v>0.243262789868993</v>
+        <v>0.4669838078361579</v>
       </c>
       <c r="E2">
-        <v>0.05020708584708089</v>
+        <v>0.1325495583738903</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.403167214071459</v>
+        <v>2.558819655718906</v>
       </c>
       <c r="H2">
-        <v>0.9495653818872256</v>
+        <v>2.076381815815182</v>
       </c>
       <c r="I2">
-        <v>1.00716839635173</v>
+        <v>2.071961212152104</v>
       </c>
       <c r="J2">
-        <v>0.02220135201553575</v>
+        <v>0.04081147924233086</v>
       </c>
       <c r="K2">
-        <v>1.118788884369707</v>
+        <v>0.9240908947411128</v>
       </c>
       <c r="L2">
-        <v>0.2517600030642413</v>
+        <v>0.4890084694475476</v>
       </c>
       <c r="M2">
-        <v>0.2815754778768067</v>
+        <v>0.3818061174113829</v>
       </c>
       <c r="N2">
-        <v>1.766543649980328</v>
+        <v>3.561060411187135</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.042210197066908</v>
+        <v>1.187814966634278</v>
       </c>
       <c r="C3">
-        <v>0.09559507045383953</v>
+        <v>0.02898488964095236</v>
       </c>
       <c r="D3">
-        <v>0.2292527142348888</v>
+        <v>0.4657646514010594</v>
       </c>
       <c r="E3">
-        <v>0.04965013528384965</v>
+        <v>0.1329194048748672</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.364730485033931</v>
+        <v>2.561295778591813</v>
       </c>
       <c r="H3">
-        <v>0.9398146497045445</v>
+        <v>2.082958715696492</v>
       </c>
       <c r="I3">
-        <v>0.9970848828430192</v>
+        <v>2.078489777806951</v>
       </c>
       <c r="J3">
-        <v>0.02144057485769757</v>
+        <v>0.04050603993829505</v>
       </c>
       <c r="K3">
-        <v>0.981066468980174</v>
+        <v>0.8921205157163286</v>
       </c>
       <c r="L3">
-        <v>0.2365969824505925</v>
+        <v>0.4876249809881088</v>
       </c>
       <c r="M3">
-        <v>0.2536851941349703</v>
+        <v>0.376596550606525</v>
       </c>
       <c r="N3">
-        <v>1.817414759917192</v>
+        <v>3.583554135965265</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9594934959780517</v>
+        <v>1.170239634185577</v>
       </c>
       <c r="C4">
-        <v>0.08660529564970432</v>
+        <v>0.02637132571686607</v>
       </c>
       <c r="D4">
-        <v>0.2209266136121499</v>
+        <v>0.4651943940453265</v>
       </c>
       <c r="E4">
-        <v>0.04935080606864695</v>
+        <v>0.1331792236262235</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.343175375868142</v>
+        <v>2.563847844849022</v>
       </c>
       <c r="H4">
-        <v>0.9349915892761231</v>
+        <v>2.087672364156973</v>
       </c>
       <c r="I4">
-        <v>0.992198442809638</v>
+        <v>2.083210593413831</v>
       </c>
       <c r="J4">
-        <v>0.02097221688677564</v>
+        <v>0.04031352725831816</v>
       </c>
       <c r="K4">
-        <v>0.8974471704934786</v>
+        <v>0.8729720700697214</v>
       </c>
       <c r="L4">
-        <v>0.2275735147652256</v>
+        <v>0.4869615784810932</v>
       </c>
       <c r="M4">
-        <v>0.2368435823728134</v>
+        <v>0.3735723077943192</v>
       </c>
       <c r="N4">
-        <v>1.850308517077899</v>
+        <v>3.598206726410702</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9260196232330884</v>
+        <v>1.163228973486213</v>
       </c>
       <c r="C5">
-        <v>0.08295599739513193</v>
+        <v>0.02530629586736666</v>
       </c>
       <c r="D5">
-        <v>0.2175996408363687</v>
+        <v>0.4650069426550516</v>
       </c>
       <c r="E5">
-        <v>0.04923928402859445</v>
+        <v>0.1332933528090088</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.334881267650559</v>
+        <v>2.565147399567834</v>
       </c>
       <c r="H5">
-        <v>0.933307791224351</v>
+        <v>2.089763244058545</v>
       </c>
       <c r="I5">
-        <v>0.9905224473165077</v>
+        <v>2.085313618574268</v>
       </c>
       <c r="J5">
-        <v>0.0207808942480483</v>
+        <v>0.04023382162943712</v>
       </c>
       <c r="K5">
-        <v>0.8635846845311335</v>
+        <v>0.8652903515660739</v>
       </c>
       <c r="L5">
-        <v>0.2239646953805234</v>
+        <v>0.486738123354499</v>
       </c>
       <c r="M5">
-        <v>0.230046470154285</v>
+        <v>0.3723838908492851</v>
       </c>
       <c r="N5">
-        <v>1.864120506876674</v>
+        <v>3.604389424445976</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9204747922114791</v>
+        <v>1.162074019167989</v>
       </c>
       <c r="C6">
-        <v>0.08235079967438708</v>
+        <v>0.02512944887114088</v>
       </c>
       <c r="D6">
-        <v>0.2170510871439291</v>
+        <v>0.4649785331687468</v>
       </c>
       <c r="E6">
-        <v>0.04922138998178127</v>
+        <v>0.1333128028076835</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.333532928106791</v>
+        <v>2.565378870838458</v>
       </c>
       <c r="H6">
-        <v>0.9330448972531542</v>
+        <v>2.090120708189687</v>
       </c>
       <c r="I6">
-        <v>0.9902628288737887</v>
+        <v>2.085673655377597</v>
       </c>
       <c r="J6">
-        <v>0.02074909304961459</v>
+        <v>0.04022051061696885</v>
       </c>
       <c r="K6">
-        <v>0.8579740366580779</v>
+        <v>0.8640221524822493</v>
       </c>
       <c r="L6">
-        <v>0.2233694735827925</v>
+        <v>0.4867038535764721</v>
       </c>
       <c r="M6">
-        <v>0.2289216531285909</v>
+        <v>0.3721892153189756</v>
       </c>
       <c r="N6">
-        <v>1.866438321001375</v>
+        <v>3.605428842297329</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9590411380532657</v>
+        <v>1.170144472176105</v>
       </c>
       <c r="C7">
-        <v>0.08655602675500518</v>
+        <v>0.02635696230832707</v>
       </c>
       <c r="D7">
-        <v>0.2208814821706113</v>
+        <v>0.4651916839499251</v>
       </c>
       <c r="E7">
-        <v>0.04934926004292706</v>
+        <v>0.1331807293774201</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.343061566925954</v>
+        <v>2.563864319948351</v>
       </c>
       <c r="H7">
-        <v>0.9349677547718187</v>
+        <v>2.087699873797746</v>
       </c>
       <c r="I7">
-        <v>0.9921745796942716</v>
+        <v>2.083238229552293</v>
       </c>
       <c r="J7">
-        <v>0.02096963871102808</v>
+        <v>0.04031245740873324</v>
       </c>
       <c r="K7">
-        <v>0.8969896572515097</v>
+        <v>0.8728679795994196</v>
       </c>
       <c r="L7">
-        <v>0.2275245731831959</v>
+        <v>0.4869583749120139</v>
       </c>
       <c r="M7">
-        <v>0.2367516536614325</v>
+        <v>0.3735561021296014</v>
       </c>
       <c r="N7">
-        <v>1.850493152614092</v>
+        <v>3.59828925137888</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.131340065280568</v>
+        <v>1.207085720597519</v>
       </c>
       <c r="C8">
-        <v>0.1052448495480576</v>
+        <v>0.03177394123063948</v>
       </c>
       <c r="D8">
-        <v>0.2383726572656286</v>
+        <v>0.4665264905106028</v>
       </c>
       <c r="E8">
-        <v>0.05000603461660091</v>
+        <v>0.1326703001261382</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.389474547484099</v>
+        <v>2.559459364686603</v>
       </c>
       <c r="H8">
-        <v>0.9459549059171053</v>
+        <v>2.078509464551274</v>
       </c>
       <c r="I8">
-        <v>1.003412803312337</v>
+        <v>2.074064523829321</v>
       </c>
       <c r="J8">
-        <v>0.02193919846938108</v>
+        <v>0.04070719260649369</v>
       </c>
       <c r="K8">
-        <v>1.071091578822035</v>
+        <v>0.9129677722209237</v>
       </c>
       <c r="L8">
-        <v>0.2464699484854975</v>
+        <v>0.4884928827995765</v>
       </c>
       <c r="M8">
-        <v>0.2718969026246967</v>
+        <v>0.3799737200066069</v>
       </c>
       <c r="N8">
-        <v>1.783733815806116</v>
+        <v>3.568641676159189</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.478435854076992</v>
+        <v>1.284273594322713</v>
       </c>
       <c r="C9">
-        <v>0.1425864967751949</v>
+        <v>0.04239964891763748</v>
       </c>
       <c r="D9">
-        <v>0.275031560364809</v>
+        <v>0.4705552283794106</v>
       </c>
       <c r="E9">
-        <v>0.05164516467445068</v>
+        <v>0.1319281999602762</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.497902140965337</v>
+        <v>2.559003942157162</v>
       </c>
       <c r="H9">
-        <v>0.9772695518391004</v>
+        <v>2.065838518598511</v>
       </c>
       <c r="I9">
-        <v>1.036424749498259</v>
+        <v>2.061720553001365</v>
       </c>
       <c r="J9">
-        <v>0.02383809679467142</v>
+        <v>0.04144206394597028</v>
       </c>
       <c r="K9">
-        <v>1.421157809303025</v>
+        <v>0.9954134732071793</v>
       </c>
       <c r="L9">
-        <v>0.2860798568096499</v>
+        <v>0.4929746593599162</v>
       </c>
       <c r="M9">
-        <v>0.3433173177772844</v>
+        <v>0.3939386880764957</v>
       </c>
       <c r="N9">
-        <v>1.666437988453879</v>
+        <v>3.517174392644428</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.740753086286531</v>
+        <v>1.343862327045315</v>
       </c>
       <c r="C10">
-        <v>0.1706714432358893</v>
+        <v>0.05021122116740173</v>
       </c>
       <c r="D10">
-        <v>0.30365454235654</v>
+        <v>0.4743714356435902</v>
       </c>
       <c r="E10">
-        <v>0.0530828287283498</v>
+        <v>0.1315396742185868</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.589951981686937</v>
+        <v>2.563656445908606</v>
       </c>
       <c r="H10">
-        <v>1.007031252273663</v>
+        <v>2.059782621329134</v>
       </c>
       <c r="I10">
-        <v>1.068296138441603</v>
+        <v>2.056086925932227</v>
       </c>
       <c r="J10">
-        <v>0.02524299088135074</v>
+        <v>0.04195844385388803</v>
       </c>
       <c r="K10">
-        <v>1.685396317771023</v>
+        <v>1.058302828189795</v>
       </c>
       <c r="L10">
-        <v>0.3169555712993457</v>
+        <v>0.4971610773646944</v>
       </c>
       <c r="M10">
-        <v>0.3976976256315083</v>
+        <v>0.4050360488724181</v>
       </c>
       <c r="N10">
-        <v>1.589243650221633</v>
+        <v>3.483422001186106</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.862082427745605</v>
+        <v>1.371593297010435</v>
       </c>
       <c r="C11">
-        <v>0.1836446690678741</v>
+        <v>0.0537666555054841</v>
       </c>
       <c r="D11">
-        <v>0.3171034330159728</v>
+        <v>0.4762926777741114</v>
       </c>
       <c r="E11">
-        <v>0.05379218861778945</v>
+        <v>0.1313967192413674</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.634947104084205</v>
+        <v>2.566855913310718</v>
       </c>
       <c r="H11">
-        <v>1.022231153928544</v>
+        <v>2.057732334932325</v>
       </c>
       <c r="I11">
-        <v>1.084673783371663</v>
+        <v>2.054268848389022</v>
       </c>
       <c r="J11">
-        <v>0.02588698825717906</v>
+        <v>0.04218832961864827</v>
       </c>
       <c r="K11">
-        <v>1.807563733735208</v>
+        <v>1.087415004264528</v>
       </c>
       <c r="L11">
-        <v>0.3314536846895493</v>
+        <v>0.4992588394517981</v>
       </c>
       <c r="M11">
-        <v>0.4229435751754096</v>
+        <v>0.4102655955871981</v>
       </c>
       <c r="N11">
-        <v>1.556241970990115</v>
+        <v>3.468947549965165</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.908350843906959</v>
+        <v>1.382183610912449</v>
       </c>
       <c r="C12">
-        <v>0.1885906915208864</v>
+        <v>0.05511331948071074</v>
       </c>
       <c r="D12">
-        <v>0.3222631849000663</v>
+        <v>0.477046756744258</v>
       </c>
       <c r="E12">
-        <v>0.05406918293004637</v>
+        <v>0.1313474251230495</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.652473381375358</v>
+        <v>2.568223151999092</v>
       </c>
       <c r="H12">
-        <v>1.028243459744857</v>
+        <v>2.057057102411079</v>
       </c>
       <c r="I12">
-        <v>1.091166194686046</v>
+        <v>2.053687360767221</v>
       </c>
       <c r="J12">
-        <v>0.02613180943530935</v>
+        <v>0.04227466541925651</v>
       </c>
       <c r="K12">
-        <v>1.854146285428442</v>
+        <v>1.098511193924651</v>
       </c>
       <c r="L12">
-        <v>0.3370148240907298</v>
+        <v>0.5000809260103551</v>
       </c>
       <c r="M12">
-        <v>0.4325849363984986</v>
+        <v>0.4122718653525013</v>
       </c>
       <c r="N12">
-        <v>1.544064480557637</v>
+        <v>3.463592884005273</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.898371113305387</v>
+        <v>1.379898838160329</v>
       </c>
       <c r="C13">
-        <v>0.1875239100751855</v>
+        <v>0.05482327766654294</v>
       </c>
       <c r="D13">
-        <v>0.3211488721481714</v>
+        <v>0.4768831731159224</v>
       </c>
       <c r="E13">
-        <v>0.0540091478118665</v>
+        <v>0.1313578265381103</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.648676445493464</v>
+        <v>2.567921770269265</v>
       </c>
       <c r="H13">
-        <v>1.026936901677971</v>
+        <v>2.057198028777918</v>
       </c>
       <c r="I13">
-        <v>1.089754673507507</v>
+        <v>2.053807838286687</v>
       </c>
       <c r="J13">
-        <v>0.02607903621583141</v>
+        <v>0.04225610327285345</v>
       </c>
       <c r="K13">
-        <v>1.844099010485905</v>
+        <v>1.096118232668459</v>
       </c>
       <c r="L13">
-        <v>0.3358138749001256</v>
+        <v>0.4999026440361405</v>
       </c>
       <c r="M13">
-        <v>0.430504744378652</v>
+        <v>0.4118386268125178</v>
       </c>
       <c r="N13">
-        <v>1.546672649122328</v>
+        <v>3.464740481241947</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.865882255132902</v>
+        <v>1.372462783705657</v>
       </c>
       <c r="C14">
-        <v>0.184050882954665</v>
+        <v>0.05387744025146901</v>
       </c>
       <c r="D14">
-        <v>0.3175265547994854</v>
+        <v>0.4763541847904094</v>
       </c>
       <c r="E14">
-        <v>0.05381480676580175</v>
+        <v>0.1313925668942151</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.636378995528247</v>
+        <v>2.566965277381485</v>
       </c>
       <c r="H14">
-        <v>1.022720544783226</v>
+        <v>2.057674756472437</v>
       </c>
       <c r="I14">
-        <v>1.085201972385164</v>
+        <v>2.054218865638362</v>
       </c>
       <c r="J14">
-        <v>0.02590710923313289</v>
+        <v>0.04219544685933485</v>
       </c>
       <c r="K14">
-        <v>1.811389458041845</v>
+        <v>1.088326452733924</v>
       </c>
       <c r="L14">
-        <v>0.331909743919482</v>
+        <v>0.4993259181938612</v>
       </c>
       <c r="M14">
-        <v>0.4237350976074268</v>
+        <v>0.4104301331216504</v>
       </c>
       <c r="N14">
-        <v>1.555233624279381</v>
+        <v>3.468504483234845</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.84602515769609</v>
+        <v>1.367919587027274</v>
       </c>
       <c r="C15">
-        <v>0.1819280511959249</v>
+        <v>0.05329812704638925</v>
       </c>
       <c r="D15">
-        <v>0.3153166665640441</v>
+        <v>0.4760336186212299</v>
       </c>
       <c r="E15">
-        <v>0.05369687081013197</v>
+        <v>0.1314144760994651</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.628911158496805</v>
+        <v>2.566399668723875</v>
       </c>
       <c r="H15">
-        <v>1.020171845969855</v>
+        <v>2.057979936388449</v>
       </c>
       <c r="I15">
-        <v>1.082451782113324</v>
+        <v>2.054484560446447</v>
       </c>
       <c r="J15">
-        <v>0.02580193090087057</v>
+        <v>0.04215819982404589</v>
       </c>
       <c r="K15">
-        <v>1.791396820012579</v>
+        <v>1.083563133625603</v>
       </c>
       <c r="L15">
-        <v>0.3295277841365873</v>
+        <v>0.4989762628355123</v>
       </c>
       <c r="M15">
-        <v>0.419599332096162</v>
+        <v>0.4095707665681729</v>
       </c>
       <c r="N15">
-        <v>1.560519562950262</v>
+        <v>3.470826516459951</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.732867186207955</v>
+        <v>1.342062551905968</v>
       </c>
       <c r="C16">
-        <v>0.1698279972577126</v>
+        <v>0.04997890562300711</v>
       </c>
       <c r="D16">
-        <v>0.3027846916181431</v>
+        <v>0.4742495975883543</v>
       </c>
       <c r="E16">
-        <v>0.05303761906357174</v>
+        <v>0.1315496949447805</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.587077493195892</v>
+        <v>2.563469140526053</v>
       </c>
       <c r="H16">
-        <v>1.006072797696618</v>
+        <v>2.059930777269614</v>
       </c>
       <c r="I16">
-        <v>1.067265334753408</v>
+        <v>2.056220717463709</v>
       </c>
       <c r="J16">
-        <v>0.02520102352050735</v>
+        <v>0.04194331969958576</v>
       </c>
       <c r="K16">
-        <v>1.677455086077714</v>
+        <v>1.056410379673622</v>
       </c>
       <c r="L16">
-        <v>0.3160176893733393</v>
+        <v>0.4970278662534042</v>
       </c>
       <c r="M16">
-        <v>0.396058653672128</v>
+        <v>0.4046979239326234</v>
       </c>
       <c r="N16">
-        <v>1.591444228472511</v>
+        <v>3.48438564174247</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.663985393463435</v>
+        <v>1.326359502488941</v>
       </c>
       <c r="C17">
-        <v>0.1624589325955696</v>
+        <v>0.04794317685986016</v>
       </c>
       <c r="D17">
-        <v>0.295210087981431</v>
+        <v>0.4732025364909447</v>
       </c>
       <c r="E17">
-        <v>0.05264765321028086</v>
+        <v>0.1316412876967057</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.562239903359398</v>
+        <v>2.561948695279625</v>
       </c>
       <c r="H17">
-        <v>0.9978609915744414</v>
+        <v>2.061307905198248</v>
       </c>
       <c r="I17">
-        <v>1.058444192154241</v>
+        <v>2.057476449692118</v>
       </c>
       <c r="J17">
-        <v>0.02483381190175038</v>
+        <v>0.04181021576904698</v>
       </c>
       <c r="K17">
-        <v>1.608084598997522</v>
+        <v>1.039881743803022</v>
       </c>
       <c r="L17">
-        <v>0.3078496784129641</v>
+        <v>0.4958820410335676</v>
       </c>
       <c r="M17">
-        <v>0.3817529723480533</v>
+        <v>0.4017549450763838</v>
       </c>
       <c r="N17">
-        <v>1.610967668001436</v>
+        <v>3.492929030326202</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.624552323860797</v>
+        <v>1.317386264374591</v>
       </c>
       <c r="C18">
-        <v>0.1582386839206151</v>
+        <v>0.04677245799108221</v>
       </c>
       <c r="D18">
-        <v>0.2908933296531444</v>
+        <v>0.4726177347283169</v>
       </c>
       <c r="E18">
-        <v>0.05242853917882329</v>
+        <v>0.1316971507626779</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.548245255651807</v>
+        <v>2.561176118207783</v>
       </c>
       <c r="H18">
-        <v>0.9932929990983155</v>
+        <v>2.062166319197075</v>
       </c>
       <c r="I18">
-        <v>1.053546070442998</v>
+        <v>2.058268813398371</v>
       </c>
       <c r="J18">
-        <v>0.02462304693944262</v>
+        <v>0.04173318531100101</v>
       </c>
       <c r="K18">
-        <v>1.568366936670373</v>
+        <v>1.030422322287052</v>
       </c>
       <c r="L18">
-        <v>0.3031938721631917</v>
+        <v>0.4952411961974263</v>
       </c>
       <c r="M18">
-        <v>0.3735720156753146</v>
+        <v>0.4000792934096893</v>
       </c>
       <c r="N18">
-        <v>1.622395051166023</v>
+        <v>3.497925761074264</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.611231844438294</v>
+        <v>1.314358184086274</v>
       </c>
       <c r="C19">
-        <v>0.156812768673916</v>
+        <v>0.04637610263843328</v>
       </c>
       <c r="D19">
-        <v>0.2894384543528616</v>
+        <v>0.4724227289890877</v>
       </c>
       <c r="E19">
-        <v>0.05235522918202129</v>
+        <v>0.1317166120076987</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.543555805482725</v>
+        <v>2.560932047757404</v>
       </c>
       <c r="H19">
-        <v>0.9917725031550901</v>
+        <v>2.062468359672437</v>
       </c>
       <c r="I19">
-        <v>1.051917211752361</v>
+        <v>2.058549137110163</v>
       </c>
       <c r="J19">
-        <v>0.02455175485319927</v>
+        <v>0.04170702281037819</v>
       </c>
       <c r="K19">
-        <v>1.554949440477969</v>
+        <v>1.027227678898413</v>
       </c>
       <c r="L19">
-        <v>0.3016245739723473</v>
+        <v>0.4950273464440329</v>
       </c>
       <c r="M19">
-        <v>0.3708099675868723</v>
+        <v>0.3995148822422365</v>
       </c>
       <c r="N19">
-        <v>1.626297725829062</v>
+        <v>3.499631789312055</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.671298484566108</v>
+        <v>1.328025043089923</v>
       </c>
       <c r="C20">
-        <v>0.1632414593987477</v>
+        <v>0.04815986502147496</v>
       </c>
       <c r="D20">
-        <v>0.296012244816481</v>
+        <v>0.473312193599611</v>
       </c>
       <c r="E20">
-        <v>0.05268862631529636</v>
+        <v>0.1316312083716635</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.564853490384621</v>
+        <v>2.562099999061161</v>
       </c>
       <c r="H20">
-        <v>0.9987189649727668</v>
+        <v>2.06115444413021</v>
       </c>
       <c r="I20">
-        <v>1.05936490545426</v>
+        <v>2.057335520563747</v>
       </c>
       <c r="J20">
-        <v>0.02487285437719855</v>
+        <v>0.04182443378830669</v>
       </c>
       <c r="K20">
-        <v>1.615450062151069</v>
+        <v>1.041636340895906</v>
       </c>
       <c r="L20">
-        <v>0.3087147662898104</v>
+        <v>0.4960021327594291</v>
       </c>
       <c r="M20">
-        <v>0.3832708845811723</v>
+        <v>0.402066464168108</v>
       </c>
       <c r="N20">
-        <v>1.608868762543807</v>
+        <v>3.492011002599483</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.875415935094452</v>
+        <v>1.374644516319819</v>
       </c>
       <c r="C21">
-        <v>0.1850700483839773</v>
+        <v>0.05415524734932831</v>
       </c>
       <c r="D21">
-        <v>0.3185886552170984</v>
+        <v>0.4765088417385073</v>
       </c>
       <c r="E21">
-        <v>0.05387165867750454</v>
+        <v>0.1313822316067892</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.639977496150607</v>
+        <v>2.567241998216957</v>
       </c>
       <c r="H21">
-        <v>1.023951884180775</v>
+        <v>2.057531985549957</v>
       </c>
       <c r="I21">
-        <v>1.086531155138253</v>
+        <v>2.054095234402652</v>
       </c>
       <c r="J21">
-        <v>0.02595758039014306</v>
+        <v>0.04221328253903422</v>
       </c>
       <c r="K21">
-        <v>1.820988032318951</v>
+        <v>1.090613135094173</v>
       </c>
       <c r="L21">
-        <v>0.3330545046734841</v>
+        <v>0.499494565257379</v>
       </c>
       <c r="M21">
-        <v>0.425721232595194</v>
+        <v>0.4108431384093976</v>
       </c>
       <c r="N21">
-        <v>1.552710256453935</v>
+        <v>3.467395471581789</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.010723761501026</v>
+        <v>1.405632717996411</v>
       </c>
       <c r="C22">
-        <v>0.1995332825417648</v>
+        <v>0.05807532498714352</v>
       </c>
       <c r="D22">
-        <v>0.3337366873878977</v>
+        <v>0.4787527267832132</v>
       </c>
       <c r="E22">
-        <v>0.05469387173909368</v>
+        <v>0.1312477125061129</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.691937878194835</v>
+        <v>2.571509925351847</v>
       </c>
       <c r="H22">
-        <v>1.041946984576498</v>
+        <v>2.055754106749504</v>
       </c>
       <c r="I22">
-        <v>1.105990114021019</v>
+        <v>2.052601026972113</v>
       </c>
       <c r="J22">
-        <v>0.02667220052713581</v>
+        <v>0.04246324088550857</v>
       </c>
       <c r="K22">
-        <v>1.957206502678304</v>
+        <v>1.123042041133317</v>
       </c>
       <c r="L22">
-        <v>0.3493789950671129</v>
+        <v>0.5019385419448383</v>
       </c>
       <c r="M22">
-        <v>0.4539429890895263</v>
+        <v>0.4167304277383579</v>
       </c>
       <c r="N22">
-        <v>1.517878051138794</v>
+        <v>3.452045107954916</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.938320394850734</v>
+        <v>1.389046344819121</v>
       </c>
       <c r="C23">
-        <v>0.191794194299078</v>
+        <v>0.05598293805520882</v>
       </c>
       <c r="D23">
-        <v>0.3256140420212716</v>
+        <v>0.4775409983963357</v>
       </c>
       <c r="E23">
-        <v>0.05425040898664335</v>
+        <v>0.1313169335975051</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.663930049918662</v>
+        <v>2.569149052803908</v>
       </c>
       <c r="H23">
-        <v>1.032198855368392</v>
+        <v>2.056649094073265</v>
       </c>
       <c r="I23">
-        <v>1.095441396883139</v>
+        <v>2.053341497294461</v>
       </c>
       <c r="J23">
-        <v>0.02629018566393704</v>
+        <v>0.04233021406101756</v>
       </c>
       <c r="K23">
-        <v>1.884318037014538</v>
+        <v>1.105695836506072</v>
       </c>
       <c r="L23">
-        <v>0.3406260550700466</v>
+        <v>0.5006194014527523</v>
       </c>
       <c r="M23">
-        <v>0.4388338777669674</v>
+        <v>0.4135744720357337</v>
       </c>
       <c r="N23">
-        <v>1.536292024589443</v>
+        <v>3.460170421916615</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.667991715514205</v>
+        <v>1.327271881903329</v>
       </c>
       <c r="C24">
-        <v>0.1628876285541025</v>
+        <v>0.04806190140094202</v>
       </c>
       <c r="D24">
-        <v>0.2956494718068683</v>
+        <v>0.4732625641398869</v>
       </c>
       <c r="E24">
-        <v>0.05267008657450134</v>
+        <v>0.1316357552494605</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.563671003452782</v>
+        <v>2.562031278295592</v>
       </c>
       <c r="H24">
-        <v>0.9983305996862555</v>
+        <v>2.061223616139046</v>
       </c>
       <c r="I24">
-        <v>1.058948112788514</v>
+        <v>2.057399015232761</v>
       </c>
       <c r="J24">
-        <v>0.02485520220278481</v>
+        <v>0.04181800740221675</v>
       </c>
       <c r="K24">
-        <v>1.612119627164077</v>
+        <v>1.040842953235028</v>
       </c>
       <c r="L24">
-        <v>0.3083235356257035</v>
+        <v>0.4959477835100046</v>
       </c>
       <c r="M24">
-        <v>0.3825845013618476</v>
+        <v>0.4019255755860556</v>
       </c>
       <c r="N24">
-        <v>1.609817046251905</v>
+        <v>3.492425778076814</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.383383740466371</v>
+        <v>1.262885633515481</v>
       </c>
       <c r="C25">
-        <v>0.1323879919789164</v>
+        <v>0.03952447715057872</v>
       </c>
       <c r="D25">
-        <v>0.2648369252812728</v>
+        <v>0.4693146863808266</v>
       </c>
       <c r="E25">
-        <v>0.05116222931187764</v>
+        <v>0.1321013608738664</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.466530467209068</v>
+        <v>2.558251275891607</v>
       </c>
       <c r="H25">
-        <v>0.9676734009288595</v>
+        <v>2.068694369543252</v>
       </c>
       <c r="I25">
-        <v>1.026227736784804</v>
+        <v>2.064456173008146</v>
       </c>
       <c r="J25">
-        <v>0.0233235468305395</v>
+        <v>0.04124742050221641</v>
       </c>
       <c r="K25">
-        <v>1.325354469851789</v>
+        <v>0.9727024783106799</v>
       </c>
       <c r="L25">
-        <v>0.2750739159602773</v>
+        <v>0.4916049914320126</v>
       </c>
       <c r="M25">
-        <v>0.3236906131965043</v>
+        <v>0.3900134680676786</v>
       </c>
       <c r="N25">
-        <v>1.696644643061333</v>
+        <v>3.530384113102848</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_106/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_106/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.217416695739445</v>
+        <v>1.178589937282169</v>
       </c>
       <c r="C2">
-        <v>0.03324176402566081</v>
+        <v>0.1103476444817204</v>
       </c>
       <c r="D2">
-        <v>0.4669838078361579</v>
+        <v>0.2432627898687656</v>
       </c>
       <c r="E2">
-        <v>0.1325495583738903</v>
+        <v>0.05020708584707911</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.558819655718906</v>
+        <v>1.403167214071445</v>
       </c>
       <c r="H2">
-        <v>2.076381815815182</v>
+        <v>0.9495653818873393</v>
       </c>
       <c r="I2">
-        <v>2.071961212152104</v>
+        <v>1.007168396351773</v>
       </c>
       <c r="J2">
-        <v>0.04081147924233086</v>
+        <v>0.02220135201554108</v>
       </c>
       <c r="K2">
-        <v>0.9240908947411128</v>
+        <v>1.118788884369707</v>
       </c>
       <c r="L2">
-        <v>0.4890084694475476</v>
+        <v>0.2517600030642058</v>
       </c>
       <c r="M2">
-        <v>0.3818061174113829</v>
+        <v>0.2815754778768067</v>
       </c>
       <c r="N2">
-        <v>3.561060411187135</v>
+        <v>1.766543649980321</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.187814966634278</v>
+        <v>1.042210197066851</v>
       </c>
       <c r="C3">
-        <v>0.02898488964095236</v>
+        <v>0.09559507045383953</v>
       </c>
       <c r="D3">
-        <v>0.4657646514010594</v>
+        <v>0.2292527142347609</v>
       </c>
       <c r="E3">
-        <v>0.1329194048748672</v>
+        <v>0.04965013528385853</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.561295778591813</v>
+        <v>1.364730485033945</v>
       </c>
       <c r="H3">
-        <v>2.082958715696492</v>
+        <v>0.9398146497045303</v>
       </c>
       <c r="I3">
-        <v>2.078489777806951</v>
+        <v>0.9970848828430263</v>
       </c>
       <c r="J3">
-        <v>0.04050603993829505</v>
+        <v>0.02144057485766382</v>
       </c>
       <c r="K3">
-        <v>0.8921205157163286</v>
+        <v>0.9810664689802024</v>
       </c>
       <c r="L3">
-        <v>0.4876249809881088</v>
+        <v>0.2365969824505214</v>
       </c>
       <c r="M3">
-        <v>0.376596550606525</v>
+        <v>0.2536851941349774</v>
       </c>
       <c r="N3">
-        <v>3.583554135965265</v>
+        <v>1.817414759917163</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.170239634185577</v>
+        <v>0.9594934959781654</v>
       </c>
       <c r="C4">
-        <v>0.02637132571686607</v>
+        <v>0.08660529564991748</v>
       </c>
       <c r="D4">
-        <v>0.4651943940453265</v>
+        <v>0.2209266136119368</v>
       </c>
       <c r="E4">
-        <v>0.1331792236262235</v>
+        <v>0.04935080606864339</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.563847844849022</v>
+        <v>1.343175375868213</v>
       </c>
       <c r="H4">
-        <v>2.087672364156973</v>
+        <v>0.9349915892760094</v>
       </c>
       <c r="I4">
-        <v>2.083210593413831</v>
+        <v>0.992198442809638</v>
       </c>
       <c r="J4">
-        <v>0.04031352725831816</v>
+        <v>0.02097221688663353</v>
       </c>
       <c r="K4">
-        <v>0.8729720700697214</v>
+        <v>0.8974471704934786</v>
       </c>
       <c r="L4">
-        <v>0.4869615784810932</v>
+        <v>0.2275735147652966</v>
       </c>
       <c r="M4">
-        <v>0.3735723077943192</v>
+        <v>0.2368435823728063</v>
       </c>
       <c r="N4">
-        <v>3.598206726410702</v>
+        <v>1.850308517077828</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.163228973486213</v>
+        <v>0.9260196232329747</v>
       </c>
       <c r="C5">
-        <v>0.02530629586736666</v>
+        <v>0.08295599739463455</v>
       </c>
       <c r="D5">
-        <v>0.4650069426550516</v>
+        <v>0.2175996408362977</v>
       </c>
       <c r="E5">
-        <v>0.1332933528090088</v>
+        <v>0.04923928402862465</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.565147399567834</v>
+        <v>1.334881267650587</v>
       </c>
       <c r="H5">
-        <v>2.089763244058545</v>
+        <v>0.9333077912244789</v>
       </c>
       <c r="I5">
-        <v>2.085313618574268</v>
+        <v>0.9905224473165077</v>
       </c>
       <c r="J5">
-        <v>0.04023382162943712</v>
+        <v>0.02078089424792928</v>
       </c>
       <c r="K5">
-        <v>0.8652903515660739</v>
+        <v>0.8635846845311335</v>
       </c>
       <c r="L5">
-        <v>0.486738123354499</v>
+        <v>0.2239646953805519</v>
       </c>
       <c r="M5">
-        <v>0.3723838908492851</v>
+        <v>0.2300464701542886</v>
       </c>
       <c r="N5">
-        <v>3.604389424445976</v>
+        <v>1.864120506876702</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.162074019167989</v>
+        <v>0.9204747922115644</v>
       </c>
       <c r="C6">
-        <v>0.02512944887114088</v>
+        <v>0.08235079967427339</v>
       </c>
       <c r="D6">
-        <v>0.4649785331687468</v>
+        <v>0.2170510871438154</v>
       </c>
       <c r="E6">
-        <v>0.1333128028076835</v>
+        <v>0.0492213899817564</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.565378870838458</v>
+        <v>1.333532928106692</v>
       </c>
       <c r="H6">
-        <v>2.090120708189687</v>
+        <v>0.9330448972531542</v>
       </c>
       <c r="I6">
-        <v>2.085673655377597</v>
+        <v>0.9902628288737745</v>
       </c>
       <c r="J6">
-        <v>0.04022051061696885</v>
+        <v>0.02074909304963057</v>
       </c>
       <c r="K6">
-        <v>0.8640221524822493</v>
+        <v>0.8579740366579927</v>
       </c>
       <c r="L6">
-        <v>0.4867038535764721</v>
+        <v>0.2233694735827996</v>
       </c>
       <c r="M6">
-        <v>0.3721892153189756</v>
+        <v>0.2289216531285945</v>
       </c>
       <c r="N6">
-        <v>3.605428842297329</v>
+        <v>1.86643832100129</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.170144472176105</v>
+        <v>0.9590411380534647</v>
       </c>
       <c r="C7">
-        <v>0.02635696230832707</v>
+        <v>0.08655602675511886</v>
       </c>
       <c r="D7">
-        <v>0.4651916839499251</v>
+        <v>0.2208814821707392</v>
       </c>
       <c r="E7">
-        <v>0.1331807293774201</v>
+        <v>0.04934926004292883</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.563864319948351</v>
+        <v>1.34306156692594</v>
       </c>
       <c r="H7">
-        <v>2.087699873797746</v>
+        <v>0.9349677547718187</v>
       </c>
       <c r="I7">
-        <v>2.083238229552293</v>
+        <v>0.992174579694229</v>
       </c>
       <c r="J7">
-        <v>0.04031245740873324</v>
+        <v>0.02096963871105473</v>
       </c>
       <c r="K7">
-        <v>0.8728679795994196</v>
+        <v>0.8969896572515381</v>
       </c>
       <c r="L7">
-        <v>0.4869583749120139</v>
+        <v>0.2275245731831532</v>
       </c>
       <c r="M7">
-        <v>0.3735561021296014</v>
+        <v>0.2367516536614254</v>
       </c>
       <c r="N7">
-        <v>3.59828925137888</v>
+        <v>1.850493152614014</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.207085720597519</v>
+        <v>1.131340065280568</v>
       </c>
       <c r="C8">
-        <v>0.03177394123063948</v>
+        <v>0.1052448495481855</v>
       </c>
       <c r="D8">
-        <v>0.4665264905106028</v>
+        <v>0.2383726572658986</v>
       </c>
       <c r="E8">
-        <v>0.1326703001261382</v>
+        <v>0.05000603461660091</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.559459364686603</v>
+        <v>1.389474547484099</v>
       </c>
       <c r="H8">
-        <v>2.078509464551274</v>
+        <v>0.9459549059169916</v>
       </c>
       <c r="I8">
-        <v>2.074064523829321</v>
+        <v>1.003412803312315</v>
       </c>
       <c r="J8">
-        <v>0.04070719260649369</v>
+        <v>0.02193919846941661</v>
       </c>
       <c r="K8">
-        <v>0.9129677722209237</v>
+        <v>1.071091578822063</v>
       </c>
       <c r="L8">
-        <v>0.4884928827995765</v>
+        <v>0.2464699484854904</v>
       </c>
       <c r="M8">
-        <v>0.3799737200066069</v>
+        <v>0.2718969026246931</v>
       </c>
       <c r="N8">
-        <v>3.568641676159189</v>
+        <v>1.783733815806116</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.284273594322713</v>
+        <v>1.478435854076821</v>
       </c>
       <c r="C9">
-        <v>0.04239964891763748</v>
+        <v>0.142586496774797</v>
       </c>
       <c r="D9">
-        <v>0.4705552283794106</v>
+        <v>0.2750315603649085</v>
       </c>
       <c r="E9">
-        <v>0.1319281999602762</v>
+        <v>0.05164516467446489</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.559003942157162</v>
+        <v>1.497902140965294</v>
       </c>
       <c r="H9">
-        <v>2.065838518598511</v>
+        <v>0.9772695518389867</v>
       </c>
       <c r="I9">
-        <v>2.061720553001365</v>
+        <v>1.036424749498266</v>
       </c>
       <c r="J9">
-        <v>0.04144206394597028</v>
+        <v>0.02383809679468385</v>
       </c>
       <c r="K9">
-        <v>0.9954134732071793</v>
+        <v>1.42115780930294</v>
       </c>
       <c r="L9">
-        <v>0.4929746593599162</v>
+        <v>0.2860798568095788</v>
       </c>
       <c r="M9">
-        <v>0.3939386880764957</v>
+        <v>0.3433173177772701</v>
       </c>
       <c r="N9">
-        <v>3.517174392644428</v>
+        <v>1.666437988453872</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.343862327045315</v>
+        <v>1.74075308628656</v>
       </c>
       <c r="C10">
-        <v>0.05021122116740173</v>
+        <v>0.1706714432358893</v>
       </c>
       <c r="D10">
-        <v>0.4743714356435902</v>
+        <v>0.3036545423567247</v>
       </c>
       <c r="E10">
-        <v>0.1315396742185868</v>
+        <v>0.05308282872833026</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.563656445908606</v>
+        <v>1.58995198168688</v>
       </c>
       <c r="H10">
-        <v>2.059782621329134</v>
+        <v>1.007031252273777</v>
       </c>
       <c r="I10">
-        <v>2.056086925932227</v>
+        <v>1.068296138441596</v>
       </c>
       <c r="J10">
-        <v>0.04195844385388803</v>
+        <v>0.02524299088129567</v>
       </c>
       <c r="K10">
-        <v>1.058302828189795</v>
+        <v>1.685396317770909</v>
       </c>
       <c r="L10">
-        <v>0.4971610773646944</v>
+        <v>0.3169555712992462</v>
       </c>
       <c r="M10">
-        <v>0.4050360488724181</v>
+        <v>0.3976976256314941</v>
       </c>
       <c r="N10">
-        <v>3.483422001186106</v>
+        <v>1.589243650221597</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.371593297010435</v>
+        <v>1.86208242774552</v>
       </c>
       <c r="C11">
-        <v>0.0537666555054841</v>
+        <v>0.1836446690677462</v>
       </c>
       <c r="D11">
-        <v>0.4762926777741114</v>
+        <v>0.3171034330160865</v>
       </c>
       <c r="E11">
-        <v>0.1313967192413674</v>
+        <v>0.05379218861780366</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.566855913310718</v>
+        <v>1.634947104084205</v>
       </c>
       <c r="H11">
-        <v>2.057732334932325</v>
+        <v>1.022231153928402</v>
       </c>
       <c r="I11">
-        <v>2.054268848389022</v>
+        <v>1.084673783371649</v>
       </c>
       <c r="J11">
-        <v>0.04218832961864827</v>
+        <v>0.02588698825724123</v>
       </c>
       <c r="K11">
-        <v>1.087415004264528</v>
+        <v>1.807563733735094</v>
       </c>
       <c r="L11">
-        <v>0.4992588394517981</v>
+        <v>0.3314536846895493</v>
       </c>
       <c r="M11">
-        <v>0.4102655955871981</v>
+        <v>0.4229435751753954</v>
       </c>
       <c r="N11">
-        <v>3.468947549965165</v>
+        <v>1.556241970990129</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.382183610912449</v>
+        <v>1.908350843906788</v>
       </c>
       <c r="C12">
-        <v>0.05511331948071074</v>
+        <v>0.1885906915208864</v>
       </c>
       <c r="D12">
-        <v>0.477046756744258</v>
+        <v>0.3222631849000521</v>
       </c>
       <c r="E12">
-        <v>0.1313474251230495</v>
+        <v>0.05406918293004459</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.568223151999092</v>
+        <v>1.65247338137533</v>
       </c>
       <c r="H12">
-        <v>2.057057102411079</v>
+        <v>1.028243459744857</v>
       </c>
       <c r="I12">
-        <v>2.053687360767221</v>
+        <v>1.091166194686039</v>
       </c>
       <c r="J12">
-        <v>0.04227466541925651</v>
+        <v>0.02613180943532534</v>
       </c>
       <c r="K12">
-        <v>1.098511193924651</v>
+        <v>1.85414628542847</v>
       </c>
       <c r="L12">
-        <v>0.5000809260103551</v>
+        <v>0.337014824090673</v>
       </c>
       <c r="M12">
-        <v>0.4122718653525013</v>
+        <v>0.4325849363984915</v>
       </c>
       <c r="N12">
-        <v>3.463592884005273</v>
+        <v>1.544064480557637</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.379898838160329</v>
+        <v>1.898371113305302</v>
       </c>
       <c r="C13">
-        <v>0.05482327766654294</v>
+        <v>0.1875239100750719</v>
       </c>
       <c r="D13">
-        <v>0.4768831731159224</v>
+        <v>0.3211488721481288</v>
       </c>
       <c r="E13">
-        <v>0.1313578265381103</v>
+        <v>0.05400914781187716</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.567921770269265</v>
+        <v>1.648676445493493</v>
       </c>
       <c r="H13">
-        <v>2.057198028777918</v>
+        <v>1.026936901677971</v>
       </c>
       <c r="I13">
-        <v>2.053807838286687</v>
+        <v>1.089754673507493</v>
       </c>
       <c r="J13">
-        <v>0.04225610327285345</v>
+        <v>0.02607903621583141</v>
       </c>
       <c r="K13">
-        <v>1.096118232668459</v>
+        <v>1.844099010485934</v>
       </c>
       <c r="L13">
-        <v>0.4999026440361405</v>
+        <v>0.3358138749001824</v>
       </c>
       <c r="M13">
-        <v>0.4118386268125178</v>
+        <v>0.430504744378652</v>
       </c>
       <c r="N13">
-        <v>3.464740481241947</v>
+        <v>1.546672649122385</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.372462783705657</v>
+        <v>1.865882255132789</v>
       </c>
       <c r="C14">
-        <v>0.05387744025146901</v>
+        <v>0.1840508829543808</v>
       </c>
       <c r="D14">
-        <v>0.4763541847904094</v>
+        <v>0.3175265547994996</v>
       </c>
       <c r="E14">
-        <v>0.1313925668942151</v>
+        <v>0.05381480676577866</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.566965277381485</v>
+        <v>1.636378995528219</v>
       </c>
       <c r="H14">
-        <v>2.057674756472437</v>
+        <v>1.022720544783112</v>
       </c>
       <c r="I14">
-        <v>2.054218865638362</v>
+        <v>1.085201972385157</v>
       </c>
       <c r="J14">
-        <v>0.04219544685933485</v>
+        <v>0.02590710923311157</v>
       </c>
       <c r="K14">
-        <v>1.088326452733924</v>
+        <v>1.811389458041901</v>
       </c>
       <c r="L14">
-        <v>0.4993259181938612</v>
+        <v>0.3319097439194678</v>
       </c>
       <c r="M14">
-        <v>0.4104301331216504</v>
+        <v>0.4237350976074339</v>
       </c>
       <c r="N14">
-        <v>3.468504483234845</v>
+        <v>1.555233624279296</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.367919587027274</v>
+        <v>1.84602515769609</v>
       </c>
       <c r="C15">
-        <v>0.05329812704638925</v>
+        <v>0.1819280511959249</v>
       </c>
       <c r="D15">
-        <v>0.4760336186212299</v>
+        <v>0.3153166665640441</v>
       </c>
       <c r="E15">
-        <v>0.1314144760994651</v>
+        <v>0.05369687081014085</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.566399668723875</v>
+        <v>1.628911158496862</v>
       </c>
       <c r="H15">
-        <v>2.057979936388449</v>
+        <v>1.020171845969827</v>
       </c>
       <c r="I15">
-        <v>2.054484560446447</v>
+        <v>1.082451782113324</v>
       </c>
       <c r="J15">
-        <v>0.04215819982404589</v>
+        <v>0.02580193090088834</v>
       </c>
       <c r="K15">
-        <v>1.083563133625603</v>
+        <v>1.791396820012636</v>
       </c>
       <c r="L15">
-        <v>0.4989762628355123</v>
+        <v>0.3295277841365163</v>
       </c>
       <c r="M15">
-        <v>0.4095707665681729</v>
+        <v>0.4195993320961833</v>
       </c>
       <c r="N15">
-        <v>3.470826516459951</v>
+        <v>1.560519562950262</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.342062551905968</v>
+        <v>1.732867186208125</v>
       </c>
       <c r="C16">
-        <v>0.04997890562300711</v>
+        <v>0.1698279972575563</v>
       </c>
       <c r="D16">
-        <v>0.4742495975883543</v>
+        <v>0.3027846916182568</v>
       </c>
       <c r="E16">
-        <v>0.1315496949447805</v>
+        <v>0.05303761906355575</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.563469140526053</v>
+        <v>1.587077493195892</v>
       </c>
       <c r="H16">
-        <v>2.059930777269614</v>
+        <v>1.006072797696646</v>
       </c>
       <c r="I16">
-        <v>2.056220717463709</v>
+        <v>1.067265334753429</v>
       </c>
       <c r="J16">
-        <v>0.04194331969958576</v>
+        <v>0.02520102352050912</v>
       </c>
       <c r="K16">
-        <v>1.056410379673622</v>
+        <v>1.677455086077714</v>
       </c>
       <c r="L16">
-        <v>0.4970278662534042</v>
+        <v>0.3160176893733961</v>
       </c>
       <c r="M16">
-        <v>0.4046979239326234</v>
+        <v>0.3960586536721209</v>
       </c>
       <c r="N16">
-        <v>3.48438564174247</v>
+        <v>1.591444228472511</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.326359502488941</v>
+        <v>1.66398539346352</v>
       </c>
       <c r="C17">
-        <v>0.04794317685986016</v>
+        <v>0.1624589325955696</v>
       </c>
       <c r="D17">
-        <v>0.4732025364909447</v>
+        <v>0.2952100879814594</v>
       </c>
       <c r="E17">
-        <v>0.1316412876967057</v>
+        <v>0.05264765321027731</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.561948695279625</v>
+        <v>1.562239903359369</v>
       </c>
       <c r="H17">
-        <v>2.061307905198248</v>
+        <v>0.9978609915744414</v>
       </c>
       <c r="I17">
-        <v>2.057476449692118</v>
+        <v>1.058444192154241</v>
       </c>
       <c r="J17">
-        <v>0.04181021576904698</v>
+        <v>0.02483381190171663</v>
       </c>
       <c r="K17">
-        <v>1.039881743803022</v>
+        <v>1.608084598997607</v>
       </c>
       <c r="L17">
-        <v>0.4958820410335676</v>
+        <v>0.3078496784129072</v>
       </c>
       <c r="M17">
-        <v>0.4017549450763838</v>
+        <v>0.3817529723480533</v>
       </c>
       <c r="N17">
-        <v>3.492929030326202</v>
+        <v>1.610967668001422</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.317386264374591</v>
+        <v>1.62455232386074</v>
       </c>
       <c r="C18">
-        <v>0.04677245799108221</v>
+        <v>0.1582386839208709</v>
       </c>
       <c r="D18">
-        <v>0.4726177347283169</v>
+        <v>0.2908933296532012</v>
       </c>
       <c r="E18">
-        <v>0.1316971507626779</v>
+        <v>0.05242853917881085</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.561176118207783</v>
+        <v>1.548245255651892</v>
       </c>
       <c r="H18">
-        <v>2.062166319197075</v>
+        <v>0.9932929990984576</v>
       </c>
       <c r="I18">
-        <v>2.058268813398371</v>
+        <v>1.053546070443005</v>
       </c>
       <c r="J18">
-        <v>0.04173318531100101</v>
+        <v>0.02462304693944084</v>
       </c>
       <c r="K18">
-        <v>1.030422322287052</v>
+        <v>1.568366936670543</v>
       </c>
       <c r="L18">
-        <v>0.4952411961974263</v>
+        <v>0.3031938721632343</v>
       </c>
       <c r="M18">
-        <v>0.4000792934096893</v>
+        <v>0.3735720156753217</v>
       </c>
       <c r="N18">
-        <v>3.497925761074264</v>
+        <v>1.622395051166009</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.314358184086274</v>
+        <v>1.611231844438265</v>
       </c>
       <c r="C19">
-        <v>0.04637610263843328</v>
+        <v>0.1568127686738165</v>
       </c>
       <c r="D19">
-        <v>0.4724227289890877</v>
+        <v>0.2894384543528901</v>
       </c>
       <c r="E19">
-        <v>0.1317166120076987</v>
+        <v>0.05235522918201063</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.560932047757404</v>
+        <v>1.543555805482697</v>
       </c>
       <c r="H19">
-        <v>2.062468359672437</v>
+        <v>0.991772503154948</v>
       </c>
       <c r="I19">
-        <v>2.058549137110163</v>
+        <v>1.051917211752361</v>
       </c>
       <c r="J19">
-        <v>0.04170702281037819</v>
+        <v>0.02455175485320282</v>
       </c>
       <c r="K19">
-        <v>1.027227678898413</v>
+        <v>1.554949440477998</v>
       </c>
       <c r="L19">
-        <v>0.4950273464440329</v>
+        <v>0.3016245739723757</v>
       </c>
       <c r="M19">
-        <v>0.3995148822422365</v>
+        <v>0.3708099675868652</v>
       </c>
       <c r="N19">
-        <v>3.499631789312055</v>
+        <v>1.626297725829062</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.328025043089923</v>
+        <v>1.671298484566137</v>
       </c>
       <c r="C20">
-        <v>0.04815986502147496</v>
+        <v>0.1632414593987335</v>
       </c>
       <c r="D20">
-        <v>0.473312193599611</v>
+        <v>0.2960122448163247</v>
       </c>
       <c r="E20">
-        <v>0.1316312083716635</v>
+        <v>0.05268862631527682</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.562099999061161</v>
+        <v>1.564853490384621</v>
       </c>
       <c r="H20">
-        <v>2.06115444413021</v>
+        <v>0.9987189649729089</v>
       </c>
       <c r="I20">
-        <v>2.057335520563747</v>
+        <v>1.059364905454252</v>
       </c>
       <c r="J20">
-        <v>0.04182443378830669</v>
+        <v>0.02487285437723585</v>
       </c>
       <c r="K20">
-        <v>1.041636340895906</v>
+        <v>1.615450062150956</v>
       </c>
       <c r="L20">
-        <v>0.4960021327594291</v>
+        <v>0.3087147662897536</v>
       </c>
       <c r="M20">
-        <v>0.402066464168108</v>
+        <v>0.3832708845811723</v>
       </c>
       <c r="N20">
-        <v>3.492011002599483</v>
+        <v>1.608868762543807</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.374644516319819</v>
+        <v>1.875415935094452</v>
       </c>
       <c r="C21">
-        <v>0.05415524734932831</v>
+        <v>0.1850700483841337</v>
       </c>
       <c r="D21">
-        <v>0.4765088417385073</v>
+        <v>0.3185886552171695</v>
       </c>
       <c r="E21">
-        <v>0.1313822316067892</v>
+        <v>0.0538716586775152</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.567241998216957</v>
+        <v>1.639977496150578</v>
       </c>
       <c r="H21">
-        <v>2.057531985549957</v>
+        <v>1.023951884180775</v>
       </c>
       <c r="I21">
-        <v>2.054095234402652</v>
+        <v>1.086531155138253</v>
       </c>
       <c r="J21">
-        <v>0.04221328253903422</v>
+        <v>0.02595758039007556</v>
       </c>
       <c r="K21">
-        <v>1.090613135094173</v>
+        <v>1.820988032319065</v>
       </c>
       <c r="L21">
-        <v>0.499494565257379</v>
+        <v>0.333054504673413</v>
       </c>
       <c r="M21">
-        <v>0.4108431384093976</v>
+        <v>0.425721232595194</v>
       </c>
       <c r="N21">
-        <v>3.467395471581789</v>
+        <v>1.552710256453935</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.405632717996411</v>
+        <v>2.010723761500969</v>
       </c>
       <c r="C22">
-        <v>0.05807532498714352</v>
+        <v>0.199533282541779</v>
       </c>
       <c r="D22">
-        <v>0.4787527267832132</v>
+        <v>0.3337366873876704</v>
       </c>
       <c r="E22">
-        <v>0.1312477125061129</v>
+        <v>0.05469387173912033</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.571509925351847</v>
+        <v>1.691937878194864</v>
       </c>
       <c r="H22">
-        <v>2.055754106749504</v>
+        <v>1.041946984576498</v>
       </c>
       <c r="I22">
-        <v>2.052601026972113</v>
+        <v>1.105990114021004</v>
       </c>
       <c r="J22">
-        <v>0.04246324088550857</v>
+        <v>0.02667220052707187</v>
       </c>
       <c r="K22">
-        <v>1.123042041133317</v>
+        <v>1.957206502678304</v>
       </c>
       <c r="L22">
-        <v>0.5019385419448383</v>
+        <v>0.3493789950670561</v>
       </c>
       <c r="M22">
-        <v>0.4167304277383579</v>
+        <v>0.4539429890895335</v>
       </c>
       <c r="N22">
-        <v>3.452045107954916</v>
+        <v>1.517878051138695</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.389046344819121</v>
+        <v>1.93832039485045</v>
       </c>
       <c r="C23">
-        <v>0.05598293805520882</v>
+        <v>0.1917941942986374</v>
       </c>
       <c r="D23">
-        <v>0.4775409983963357</v>
+        <v>0.3256140420212432</v>
       </c>
       <c r="E23">
-        <v>0.1313169335975051</v>
+        <v>0.05425040898666467</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.569149052803908</v>
+        <v>1.663930049918662</v>
       </c>
       <c r="H23">
-        <v>2.056649094073265</v>
+        <v>1.032198855368392</v>
       </c>
       <c r="I23">
-        <v>2.053341497294461</v>
+        <v>1.095441396883139</v>
       </c>
       <c r="J23">
-        <v>0.04233021406101756</v>
+        <v>0.02629018566393881</v>
       </c>
       <c r="K23">
-        <v>1.105695836506072</v>
+        <v>1.884318037014538</v>
       </c>
       <c r="L23">
-        <v>0.5006194014527523</v>
+        <v>0.3406260550701603</v>
       </c>
       <c r="M23">
-        <v>0.4135744720357337</v>
+        <v>0.4388338777669603</v>
       </c>
       <c r="N23">
-        <v>3.460170421916615</v>
+        <v>1.536292024589443</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.327271881903329</v>
+        <v>1.667991715514319</v>
       </c>
       <c r="C24">
-        <v>0.04806190140094202</v>
+        <v>0.1628876285541025</v>
       </c>
       <c r="D24">
-        <v>0.4732625641398869</v>
+        <v>0.2956494718068825</v>
       </c>
       <c r="E24">
-        <v>0.1316357552494605</v>
+        <v>0.05267008657449956</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.562031278295592</v>
+        <v>1.563671003452782</v>
       </c>
       <c r="H24">
-        <v>2.061223616139046</v>
+        <v>0.9983305996861702</v>
       </c>
       <c r="I24">
-        <v>2.057399015232761</v>
+        <v>1.058948112788514</v>
       </c>
       <c r="J24">
-        <v>0.04181800740221675</v>
+        <v>0.02485520220261428</v>
       </c>
       <c r="K24">
-        <v>1.040842953235028</v>
+        <v>1.612119627164077</v>
       </c>
       <c r="L24">
-        <v>0.4959477835100046</v>
+        <v>0.3083235356257603</v>
       </c>
       <c r="M24">
-        <v>0.4019255755860556</v>
+        <v>0.3825845013618476</v>
       </c>
       <c r="N24">
-        <v>3.492425778076814</v>
+        <v>1.609817046251948</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.262885633515481</v>
+        <v>1.383383740466428</v>
       </c>
       <c r="C25">
-        <v>0.03952447715057872</v>
+        <v>0.1323879919787885</v>
       </c>
       <c r="D25">
-        <v>0.4693146863808266</v>
+        <v>0.264836925281287</v>
       </c>
       <c r="E25">
-        <v>0.1321013608738664</v>
+        <v>0.0511622293118581</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.558251275891607</v>
+        <v>1.466530467209111</v>
       </c>
       <c r="H25">
-        <v>2.068694369543252</v>
+        <v>0.9676734009290016</v>
       </c>
       <c r="I25">
-        <v>2.064456173008146</v>
+        <v>1.026227736784811</v>
       </c>
       <c r="J25">
-        <v>0.04124742050221641</v>
+        <v>0.02332354683042581</v>
       </c>
       <c r="K25">
-        <v>0.9727024783106799</v>
+        <v>1.325354469851817</v>
       </c>
       <c r="L25">
-        <v>0.4916049914320126</v>
+        <v>0.2750739159602631</v>
       </c>
       <c r="M25">
-        <v>0.3900134680676786</v>
+        <v>0.3236906131965043</v>
       </c>
       <c r="N25">
-        <v>3.530384113102848</v>
+        <v>1.696644643061326</v>
       </c>
       <c r="O25">
         <v>0</v>
